--- a/xenhan-shop-webui/src/main/webapp/resources/file/DanhSachDonHang_ShopXeNhan.xlsx
+++ b/xenhan-shop-webui/src/main/webapp/resources/file/DanhSachDonHang_ShopXeNhan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Danh sach don hang " sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
   <si>
     <t xml:space="preserve">STT</t>
   </si>
@@ -87,12 +87,6 @@
     <t xml:space="preserve">01678762088</t>
   </si>
   <si>
-    <t xml:space="preserve">Bộ mỹ phẩm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XN362190</t>
-  </si>
-  <si>
     <t xml:space="preserve">Số 3411 trường chinh</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
   </si>
   <si>
     <t xml:space="preserve">01223456789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XN526346</t>
   </si>
   <si>
     <t xml:space="preserve">Thành Phố</t>
@@ -292,7 +283,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* \-??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -316,87 +307,6 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -415,7 +325,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
-      <family val="0"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -434,54 +344,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFFCD5B5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFCD5B5"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -498,17 +366,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC3D69B"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFCD5B5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCD5B5"/>
-        <bgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFC3D69B"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -516,23 +384,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -558,144 +411,80 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="9" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -707,10 +496,10 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC3D69B"/>
@@ -722,7 +511,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -736,7 +525,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFCD5B5"/>
       <rgbColor rgb="FF3366FF"/>
@@ -765,25 +554,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="25.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="19.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="22.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="21.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="16.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="2" width="11.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="2" width="8.83"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.17813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="14.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="14.0323886639676"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="2" width="11.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -829,7 +618,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>1025000</v>
+        <v>100000</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -845,12 +634,6 @@
       </c>
       <c r="H2" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="K2" s="10"/>
     </row>
@@ -862,45 +645,25 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>560000</v>
+        <v>200000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="K3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="3">
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B2:B3" type="list">
@@ -918,7 +681,7 @@
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -933,43 +696,43 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.83"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.74898785425101"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.17813765182186"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>11</v>
@@ -980,42 +743,42 @@
         <v>13</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>14</v>
@@ -1023,182 +786,182 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
